--- a/Assets/StreamingAssets/CSV/DiabloItemTable.xlsx
+++ b/Assets/StreamingAssets/CSV/DiabloItemTable.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitFiles\C-Final\Assets\StreamingAssets\CSV\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C8A445-428F-483D-8402-82A207905DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="108" windowWidth="13608" windowHeight="8184"/>
+    <workbookView xWindow="2925" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="121">
   <si>
     <t>ItemCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,30 +64,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{6,16}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{4,12}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Broad Axe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{8,20}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Battle Axe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{10,25}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Great Axe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,26 +84,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{12,30}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>War Hammer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{5,9}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Maul</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{6,20}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Category</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,18 +108,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{1,6}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Spiked Club</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{3,6}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mace</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,74 +124,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{1,4}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Short Sword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{2,6}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sabre</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{1,8}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Scimitar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{3,,7}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TwoHanded Sword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{8,16}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gread Sword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{10,20}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Short Bow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{1,4}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Short Battle Bow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{3,7}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Short War Bow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{4,8}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Long Staff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,14 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{2,4}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{4,8}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>War Staff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,98 +175,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{40,45}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Studded Leather Armor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{15,17}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chain Mail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{18,22}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Scale Mail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{23,28}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hard Leather Armor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{11,14}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rags</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{2,6}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Quilted Armor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{7,10}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Leather Armor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{10,13}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Splint Mail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{30,35}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Robe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{4,7}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cloak</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{3,7}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cape</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{1,5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Body</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,10 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{6,8}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Head</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,34 +235,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{8,12}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Great Helm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{10,15}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{1,3}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Skull Cap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{2,4}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Buckler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -397,42 +255,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{5,10}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Kite Shield</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{8,15}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tower Shield</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{12,20}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gothic Shield</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{12,18}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Optic Amulet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{20,28}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Amulet</t>
   </si>
   <si>
@@ -491,38 +329,182 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{2,3}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1,3}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{2,3}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1,3}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1,2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{2,2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1,1}</t>
+    <t>4,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>1,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -576,6 +558,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -623,7 +608,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -656,9 +641,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -691,6 +693,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -866,19 +885,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.3984375" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -895,7 +914,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -904,22 +923,22 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L1" t="s">
         <v>9</v>
       </c>
       <c r="M1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -927,7 +946,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="D2">
         <v>32</v>
@@ -945,22 +964,22 @@
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L2">
         <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -968,7 +987,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="D3">
         <v>40</v>
@@ -986,30 +1005,30 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L3">
         <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="D4">
         <v>50</v>
@@ -1027,30 +1046,30 @@
         <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L4">
         <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="D5">
         <v>60</v>
@@ -1068,30 +1087,30 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L5">
         <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D6">
         <v>75</v>
@@ -1109,30 +1128,30 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L6">
         <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -1150,30 +1169,30 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L7">
         <v>112</v>
       </c>
       <c r="M7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="D8">
         <v>20</v>
@@ -1191,30 +1210,30 @@
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L8">
         <v>124</v>
       </c>
       <c r="M8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D9">
         <v>32</v>
@@ -1232,30 +1251,30 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L9">
         <v>120</v>
       </c>
       <c r="M9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="D10">
         <v>50</v>
@@ -1273,30 +1292,30 @@
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L10">
         <v>115</v>
       </c>
       <c r="M10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1010</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="D11">
         <v>50</v>
@@ -1314,30 +1333,30 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L11">
         <v>116</v>
       </c>
       <c r="M11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1011</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="D12">
         <v>16</v>
@@ -1355,30 +1374,30 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L12">
         <v>156</v>
       </c>
       <c r="M12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1012</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="D13">
         <v>24</v>
@@ -1396,30 +1415,30 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L13">
         <v>144</v>
       </c>
       <c r="M13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1013</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="D14">
         <v>45</v>
@@ -1437,30 +1456,30 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L14">
         <v>146</v>
       </c>
       <c r="M14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1014</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="D15">
         <v>28</v>
@@ -1478,30 +1497,30 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L15">
         <v>148</v>
       </c>
       <c r="M15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1015</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D16">
         <v>75</v>
@@ -1519,30 +1538,30 @@
         <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L16">
         <v>151</v>
       </c>
       <c r="M16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1016</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="D17">
         <v>100</v>
@@ -1560,30 +1579,30 @@
         <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="K17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L17">
         <v>152</v>
       </c>
       <c r="M17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1017</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="D18">
         <v>30</v>
@@ -1601,30 +1620,30 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L18">
         <v>48</v>
       </c>
       <c r="M18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1018</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="D19">
         <v>45</v>
@@ -1642,30 +1661,30 @@
         <v>9</v>
       </c>
       <c r="I19" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="K19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L19">
         <v>56</v>
       </c>
       <c r="M19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1019</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D20">
         <v>55</v>
@@ -1683,30 +1702,30 @@
         <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="K20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L20">
         <v>54</v>
       </c>
       <c r="M20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1020</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="D21">
         <v>25</v>
@@ -1724,30 +1743,30 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="K21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L21">
         <v>34</v>
       </c>
       <c r="M21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1021</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="D22">
         <v>35</v>
@@ -1765,30 +1784,30 @@
         <v>4</v>
       </c>
       <c r="I22" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J22" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="K22" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L22">
         <v>35</v>
       </c>
       <c r="M22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1022</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D23">
         <v>75</v>
@@ -1806,30 +1825,30 @@
         <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J23" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="K23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L23">
         <v>36</v>
       </c>
       <c r="M23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1023</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="D24">
         <v>80</v>
@@ -1847,30 +1866,30 @@
         <v>21</v>
       </c>
       <c r="I24" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J24" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="K24" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1024</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="D25">
         <v>45</v>
@@ -1888,30 +1907,30 @@
         <v>9</v>
       </c>
       <c r="I25" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J25" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1025</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="D26">
         <v>55</v>
@@ -1929,30 +1948,30 @@
         <v>13</v>
       </c>
       <c r="I26" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J26" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L26">
         <v>2</v>
       </c>
       <c r="M26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1026</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="D27">
         <v>60</v>
@@ -1970,30 +1989,30 @@
         <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J27" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L27">
         <v>3</v>
       </c>
       <c r="M27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1027</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="D28">
         <v>40</v>
@@ -2011,30 +2030,30 @@
         <v>7</v>
       </c>
       <c r="I28" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J28" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L28">
         <v>4</v>
       </c>
       <c r="M28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1028</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D29">
         <v>6</v>
@@ -2052,30 +2071,30 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J29" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L29">
         <v>5</v>
       </c>
       <c r="M29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1029</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D30">
         <v>30</v>
@@ -2093,30 +2112,30 @@
         <v>4</v>
       </c>
       <c r="I30" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J30" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L30">
         <v>6</v>
       </c>
       <c r="M30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1030</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="D31">
         <v>35</v>
@@ -2134,30 +2153,30 @@
         <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J31" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="K31" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L31">
         <v>7</v>
       </c>
       <c r="M31" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1031</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D32">
         <v>65</v>
@@ -2175,30 +2194,30 @@
         <v>17</v>
       </c>
       <c r="I32" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J32" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L32">
         <v>8</v>
       </c>
       <c r="M32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1032</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="D33">
         <v>24</v>
@@ -2216,30 +2235,30 @@
         <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J33" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="K33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L33">
         <v>9</v>
       </c>
       <c r="M33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1033</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D34">
         <v>18</v>
@@ -2257,30 +2276,30 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J34" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="K34" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L34">
         <v>12</v>
       </c>
       <c r="M34" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1034</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="D35">
         <v>12</v>
@@ -2298,30 +2317,30 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J35" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="K35" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L35">
         <v>13</v>
       </c>
       <c r="M35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1035</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -2339,30 +2358,30 @@
         <v>12</v>
       </c>
       <c r="I36" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J36" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L36">
         <v>92</v>
       </c>
       <c r="M36" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1036</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D37">
         <v>40</v>
@@ -2380,30 +2399,30 @@
         <v>16</v>
       </c>
       <c r="I37" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J37" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="K37" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L37">
         <v>104</v>
       </c>
       <c r="M37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1037</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D38">
         <v>60</v>
@@ -2421,30 +2440,30 @@
         <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J38" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L38">
         <v>105</v>
       </c>
       <c r="M38" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1038</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D39">
         <v>15</v>
@@ -2462,27 +2481,27 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J39" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L39">
         <v>102</v>
       </c>
       <c r="M39" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1039</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
         <v>92</v>
@@ -2503,30 +2522,30 @@
         <v>4</v>
       </c>
       <c r="I40" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J40" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="K40" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L40">
         <v>101</v>
       </c>
       <c r="M40" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1040</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="D41">
         <v>16</v>
@@ -2544,30 +2563,30 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J41" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="K41" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L41">
         <v>126</v>
       </c>
       <c r="M41" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1041</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D42">
         <v>32</v>
@@ -2585,30 +2604,30 @@
         <v>9</v>
       </c>
       <c r="I42" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J42" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="K42" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L42">
         <v>135</v>
       </c>
       <c r="M42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1042</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D43">
         <v>40</v>
@@ -2626,30 +2645,30 @@
         <v>14</v>
       </c>
       <c r="I43" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J43" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="K43" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L43">
         <v>129</v>
       </c>
       <c r="M43" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1043</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D44">
         <v>50</v>
@@ -2667,30 +2686,30 @@
         <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J44" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="K44" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L44">
         <v>133</v>
       </c>
       <c r="M44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1044</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D45">
         <v>60</v>
@@ -2708,30 +2727,30 @@
         <v>23</v>
       </c>
       <c r="I45" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J45" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="K45" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L45">
         <v>136</v>
       </c>
       <c r="M45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1045</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2749,30 +2768,30 @@
         <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J46" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="K46" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L46">
         <v>22</v>
       </c>
       <c r="M46" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1046</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2790,30 +2809,30 @@
         <v>20</v>
       </c>
       <c r="I47" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J47" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="K47" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L47">
         <v>79</v>
       </c>
       <c r="M47" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1047</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2831,27 +2850,27 @@
         <v>20</v>
       </c>
       <c r="I48" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J48" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="K48" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L48">
         <v>80</v>
       </c>
       <c r="M48" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2001</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="C49">
         <v>20</v>
@@ -2872,27 +2891,27 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L49">
         <v>69</v>
       </c>
       <c r="M49" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2002</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="C50">
         <v>80</v>
@@ -2913,27 +2932,27 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L50">
         <v>70</v>
       </c>
       <c r="M50" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2003</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="C51">
         <v>20</v>
@@ -2954,27 +2973,27 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L51">
         <v>71</v>
       </c>
       <c r="M51" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2004</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="C52">
         <v>80</v>
@@ -2995,27 +3014,27 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L52">
         <v>184</v>
       </c>
       <c r="M52" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2005</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="C53">
         <v>20</v>
@@ -3036,27 +3055,27 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L53">
         <v>185</v>
       </c>
       <c r="M53" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2006</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="C54">
         <v>80</v>
@@ -3077,19 +3096,19 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L54">
         <v>72</v>
       </c>
       <c r="M54" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3100,12 +3119,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3113,12 +3132,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
